--- a/Documentation/LogBook.xlsx
+++ b/Documentation/LogBook.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="116">
   <si>
     <t>Date</t>
   </si>
@@ -277,6 +277,105 @@
   </si>
   <si>
     <t>Too many libraries to handle with SDL and C++, since GUI development requires multiple libraries with many dependencies</t>
+  </si>
+  <si>
+    <t>Returning to C++ And VS</t>
+  </si>
+  <si>
+    <t>Cleaning up code to set up ImGui</t>
+  </si>
+  <si>
+    <t>Testing ImGui components to see what can be added to the project</t>
+  </si>
+  <si>
+    <t>Fixing minor problems which cause UX annoyances</t>
+  </si>
+  <si>
+    <t>Adding project files to github repository to help keep track of the changes in the project</t>
+  </si>
+  <si>
+    <t>Setting up textures so that a map is displayed</t>
+  </si>
+  <si>
+    <t>Implementation of a zoom function</t>
+  </si>
+  <si>
+    <t>A break in ImGui exists where the menu bar does not work if the user begins with their mouse on the app window</t>
+  </si>
+  <si>
+    <t>Implementation of frame limiting</t>
+  </si>
+  <si>
+    <t>Took a break for a few days</t>
+  </si>
+  <si>
+    <t>I need a rest</t>
+  </si>
+  <si>
+    <t>Attempt at fixing and therefore improving the zoom function</t>
+  </si>
+  <si>
+    <t>Fixed the menu bar problem by removing a line: SDL_GetCurrentDisplayMode</t>
+  </si>
+  <si>
+    <t>Setting up the program to be able to parse data</t>
+  </si>
+  <si>
+    <t>country data which will be used to load the country data</t>
+  </si>
+  <si>
+    <t>Successfully able to load external data</t>
+  </si>
+  <si>
+    <t>removed zoom and pan because it broke, oops</t>
+  </si>
+  <si>
+    <t>Created an image which is now the default map. Countries are now identifiable via mouse click</t>
+  </si>
+  <si>
+    <t>Rethinking how there should be a separate program to create scenarios; Sub project started for the scenario creator</t>
+  </si>
+  <si>
+    <t>Panning and zooming reimplemented</t>
+  </si>
+  <si>
+    <t>Continued work on scenario creator</t>
+  </si>
+  <si>
+    <t>Taking the week off, holiday and rest</t>
+  </si>
+  <si>
+    <t>Resuming with work</t>
+  </si>
+  <si>
+    <t>Worked on GUI inputs and outputs, user experience and interface work</t>
+  </si>
+  <si>
+    <t>Standardising the scenario file types</t>
+  </si>
+  <si>
+    <t>Changing some data types to unsigned long long to be able to handle huge numbers because of population</t>
+  </si>
+  <si>
+    <t>Added some opengl libraries to the dependencies file so that I can work on the project on other computers, especially the labs which don't seem to have the windows sdk installed</t>
+  </si>
+  <si>
+    <t>Feedback form for supervisor</t>
+  </si>
+  <si>
+    <t>Implementation of data saving</t>
+  </si>
+  <si>
+    <t>Can now save scenarios</t>
+  </si>
+  <si>
+    <t>some user friendlyness fixes, i.e. auto linking of countries, input validations etc</t>
+  </si>
+  <si>
+    <t>Mini test of previous additions</t>
+  </si>
+  <si>
+    <t>Working on loading scenario data</t>
   </si>
 </sst>
 </file>
@@ -896,10 +995,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,10 +1007,10 @@
     <col min="2" max="2" width="6.85546875" style="10" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" style="11" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="11" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="11" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
@@ -1408,6 +1507,380 @@
       </c>
       <c r="G24" s="11" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>43041</v>
+      </c>
+      <c r="B25" s="10">
+        <v>5</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>43042</v>
+      </c>
+      <c r="B26" s="10">
+        <v>5</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>43046</v>
+      </c>
+      <c r="B27" s="10">
+        <v>6</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>43053</v>
+      </c>
+      <c r="B28" s="10">
+        <v>7</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>43060</v>
+      </c>
+      <c r="B29" s="10">
+        <v>8</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>43063</v>
+      </c>
+      <c r="B30" s="10">
+        <v>8</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>43066</v>
+      </c>
+      <c r="B31" s="10">
+        <v>9</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>43068</v>
+      </c>
+      <c r="B32" s="10">
+        <v>9</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>43070</v>
+      </c>
+      <c r="B33" s="10">
+        <v>10</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>43073</v>
+      </c>
+      <c r="B34" s="10">
+        <v>11</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>43076</v>
+      </c>
+      <c r="B35" s="10">
+        <v>11</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>43077</v>
+      </c>
+      <c r="B36" s="10">
+        <v>11</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>43078</v>
+      </c>
+      <c r="B37" s="10">
+        <v>11</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>43080</v>
+      </c>
+      <c r="B38" s="10">
+        <v>12</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>43081</v>
+      </c>
+      <c r="B39" s="10">
+        <v>12</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>43082</v>
+      </c>
+      <c r="B40" s="10">
+        <v>12</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>43083</v>
+      </c>
+      <c r="B41" s="10">
+        <v>12</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>43089</v>
+      </c>
+      <c r="B42" s="10">
+        <v>13</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>42739</v>
+      </c>
+      <c r="B43" s="10">
+        <v>15</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>42743</v>
+      </c>
+      <c r="B44" s="10">
+        <v>16</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>42746</v>
+      </c>
+      <c r="B45" s="10">
+        <v>16</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>42746</v>
+      </c>
+      <c r="B46" s="10">
+        <v>16</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>42748</v>
+      </c>
+      <c r="B47" s="10">
+        <v>16</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>42749</v>
+      </c>
+      <c r="B48" s="10">
+        <v>16</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>42750</v>
+      </c>
+      <c r="B49" s="10">
+        <v>17</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/LogBook.xlsx
+++ b/Documentation/LogBook.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ZEUS\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC438D95-7F32-46AB-BAFD-78C361C1F75A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="145">
   <si>
     <t>Date</t>
   </si>
@@ -376,6 +377,93 @@
   </si>
   <si>
     <t>Working on loading scenario data</t>
+  </si>
+  <si>
+    <t>Progress on loadScenario function</t>
+  </si>
+  <si>
+    <t>loadScenario function finished</t>
+  </si>
+  <si>
+    <t>Make this function be usable in the simulator as well</t>
+  </si>
+  <si>
+    <t>Finished Scenario Creator</t>
+  </si>
+  <si>
+    <t>starting to create project poster</t>
+  </si>
+  <si>
+    <t>Poster completed and submitted</t>
+  </si>
+  <si>
+    <t>Creation of the project report</t>
+  </si>
+  <si>
+    <t>Most headings set out</t>
+  </si>
+  <si>
+    <t>Added MIT License to the project on GitHub</t>
+  </si>
+  <si>
+    <t>Created a release build of the incomplete system for other people to check currently working systems</t>
+  </si>
+  <si>
+    <t>minor adjustments to Scenario Creator and Main simulator</t>
+  </si>
+  <si>
+    <t>Progress on report</t>
+  </si>
+  <si>
+    <t>Halfway done with the report</t>
+  </si>
+  <si>
+    <t>Progress on simulator</t>
+  </si>
+  <si>
+    <t>Most inputs are set up</t>
+  </si>
+  <si>
+    <t>Explaining extra tools used in documentation</t>
+  </si>
+  <si>
+    <t>Simulator allows users to switch between scenarios in the simulation</t>
+  </si>
+  <si>
+    <t>Users can choose which country the infection spreads from</t>
+  </si>
+  <si>
+    <t>More simulation settings</t>
+  </si>
+  <si>
+    <t>Minor tweaks in Scenario creator to reflect changes in main simulator</t>
+  </si>
+  <si>
+    <t>Sliders not used to input instead of typing values in</t>
+  </si>
+  <si>
+    <t>Simulator can now run epidemic simulations, but not zombies yet</t>
+  </si>
+  <si>
+    <t>Setting up presentation for the presentation and demonstration of the project</t>
+  </si>
+  <si>
+    <t>Noticed that this was late and also accidentally sent the wrong file to blackboard</t>
+  </si>
+  <si>
+    <t>Demonstrate the project to a panel</t>
+  </si>
+  <si>
+    <t>It went well, presentation shown to panel is different to the blackboard version</t>
+  </si>
+  <si>
+    <t>Finishing the report</t>
+  </si>
+  <si>
+    <t>This is the last entry on the log book, if you want a complete version of every single commit, check out this project on blackboard</t>
+  </si>
+  <si>
+    <t>Note: Anything commited after 20/02/2018 is no longer part of the submitted document and is me working on improving the project outside of this</t>
   </si>
 </sst>
 </file>
@@ -470,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -502,6 +590,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -995,10 +1086,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1311,7 +1404,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>43026</v>
       </c>
@@ -1337,7 +1430,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>43027</v>
       </c>
@@ -1360,7 +1453,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>43029</v>
       </c>
@@ -1452,7 +1545,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>43034</v>
       </c>
@@ -1489,7 +1582,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>43037</v>
       </c>
@@ -1522,6 +1615,9 @@
       <c r="D25" s="12" t="s">
         <v>83</v>
       </c>
+      <c r="G25" s="11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
@@ -1536,6 +1632,9 @@
       <c r="D26" s="12" t="s">
         <v>84</v>
       </c>
+      <c r="G26" s="11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
@@ -1550,6 +1649,9 @@
       <c r="D27" s="12" t="s">
         <v>85</v>
       </c>
+      <c r="G27" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
@@ -1564,6 +1666,9 @@
       <c r="D28" s="12" t="s">
         <v>86</v>
       </c>
+      <c r="G28" s="11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
@@ -1578,6 +1683,9 @@
       <c r="D29" s="12" t="s">
         <v>87</v>
       </c>
+      <c r="G29" s="11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
@@ -1592,8 +1700,11 @@
       <c r="D30" s="12" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="G30" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>43066</v>
       </c>
@@ -1608,6 +1719,9 @@
       </c>
       <c r="E31" s="12" t="s">
         <v>90</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1623,8 +1737,11 @@
       <c r="D32" s="12" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G32" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>43070</v>
       </c>
@@ -1641,7 +1758,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>43073</v>
       </c>
@@ -1654,8 +1771,11 @@
       <c r="D34" s="12" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G34" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>43076</v>
       </c>
@@ -1668,8 +1788,11 @@
       <c r="D35" s="12" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G35" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>43077</v>
       </c>
@@ -1685,8 +1808,11 @@
       <c r="E36" s="12" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G36" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>43078</v>
       </c>
@@ -1702,8 +1828,11 @@
       <c r="E37" s="12" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G37" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>43080</v>
       </c>
@@ -1716,8 +1845,11 @@
       <c r="D38" s="12" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="G38" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>43081</v>
       </c>
@@ -1730,8 +1862,11 @@
       <c r="D39" s="12" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G39" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>43082</v>
       </c>
@@ -1744,8 +1879,11 @@
       <c r="D40" s="12" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G40" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>43083</v>
       </c>
@@ -1758,8 +1896,11 @@
       <c r="D41" s="12" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G41" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>43089</v>
       </c>
@@ -1773,7 +1914,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>42739</v>
       </c>
@@ -1790,7 +1931,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>42743</v>
       </c>
@@ -1803,8 +1944,11 @@
       <c r="D44" s="12" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="G44" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>42746</v>
       </c>
@@ -1820,8 +1964,11 @@
       <c r="E45" s="12" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G45" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>42746</v>
       </c>
@@ -1834,8 +1981,11 @@
       <c r="D46" s="12" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G46" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>42748</v>
       </c>
@@ -1854,8 +2004,11 @@
       <c r="F47" s="12" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G47" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>42749</v>
       </c>
@@ -1868,8 +2021,11 @@
       <c r="D48" s="12" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="G48" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>42750</v>
       </c>
@@ -1881,6 +2037,487 @@
       </c>
       <c r="D49" s="12" t="s">
         <v>115</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>43116</v>
+      </c>
+      <c r="B50" s="10">
+        <v>17</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>43118</v>
+      </c>
+      <c r="B51" s="10">
+        <v>17</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>43144</v>
+      </c>
+      <c r="B52" s="10">
+        <v>21</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>43173</v>
+      </c>
+      <c r="B53" s="10">
+        <v>25</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>43183</v>
+      </c>
+      <c r="B54" s="10">
+        <v>26</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>43185</v>
+      </c>
+      <c r="B55" s="10">
+        <v>26</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>43185</v>
+      </c>
+      <c r="B56" s="10">
+        <v>27</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>43186</v>
+      </c>
+      <c r="B57" s="10">
+        <v>27</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="13">
+        <v>43188</v>
+      </c>
+      <c r="B58" s="10">
+        <v>27</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>43189</v>
+      </c>
+      <c r="B59" s="10">
+        <v>27</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>43190</v>
+      </c>
+      <c r="B60" s="10">
+        <v>27</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>43195</v>
+      </c>
+      <c r="B61" s="10">
+        <v>28</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>43195</v>
+      </c>
+      <c r="B62" s="10">
+        <v>28</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>43196</v>
+      </c>
+      <c r="B63" s="10">
+        <v>28</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
+        <v>43199</v>
+      </c>
+      <c r="B64" s="10">
+        <v>29</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>43199</v>
+      </c>
+      <c r="B65" s="10">
+        <v>29</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E65" s="12"/>
+      <c r="G65" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>43200</v>
+      </c>
+      <c r="B66" s="10">
+        <v>29</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>43200</v>
+      </c>
+      <c r="B67" s="10">
+        <v>29</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
+        <v>43201</v>
+      </c>
+      <c r="B68" s="10">
+        <v>29</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>43203</v>
+      </c>
+      <c r="B69" s="10">
+        <v>29</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
+        <v>43203</v>
+      </c>
+      <c r="B70" s="10">
+        <v>29</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>43203</v>
+      </c>
+      <c r="B71" s="10">
+        <v>29</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
+        <v>43207</v>
+      </c>
+      <c r="B72" s="10">
+        <v>30</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>43207</v>
+      </c>
+      <c r="B73" s="10">
+        <v>30</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>43208</v>
+      </c>
+      <c r="B74" s="10">
+        <v>30</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
+        <v>43209</v>
+      </c>
+      <c r="B75" s="10">
+        <v>30</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
+        <v>43210</v>
+      </c>
+      <c r="B76" s="10">
+        <v>30</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
